--- a/raw_data/homicide_rates.xlsx
+++ b/raw_data/homicide_rates.xlsx
@@ -347,9 +347,6 @@
     <t>BHR</t>
   </si>
   <si>
-    <t>Bahamas, The</t>
-  </si>
-  <si>
     <t>BHS</t>
   </si>
   <si>
@@ -395,9 +392,6 @@
     <t>BRB</t>
   </si>
   <si>
-    <t>Brunei Darussalam</t>
-  </si>
-  <si>
     <t>BRN</t>
   </si>
   <si>
@@ -467,15 +461,9 @@
     <t>CMR</t>
   </si>
   <si>
-    <t>Congo, Dem. Rep.</t>
-  </si>
-  <si>
     <t>COD</t>
   </si>
   <si>
-    <t>Congo, Rep.</t>
-  </si>
-  <si>
     <t>COG</t>
   </si>
   <si>
@@ -611,9 +599,6 @@
     <t>ECU</t>
   </si>
   <si>
-    <t>Egypt, Arab Rep.</t>
-  </si>
-  <si>
     <t>EGY</t>
   </si>
   <si>
@@ -683,9 +668,6 @@
     <t>FRO</t>
   </si>
   <si>
-    <t>Micronesia, Fed. Sts.</t>
-  </si>
-  <si>
     <t>FSM</t>
   </si>
   <si>
@@ -725,9 +707,6 @@
     <t>GIN</t>
   </si>
   <si>
-    <t>Gambia, The</t>
-  </si>
-  <si>
     <t>GMB</t>
   </si>
   <si>
@@ -881,9 +860,6 @@
     <t>IRL</t>
   </si>
   <si>
-    <t>Iran, Islamic Rep.</t>
-  </si>
-  <si>
     <t>IRN</t>
   </si>
   <si>
@@ -941,9 +917,6 @@
     <t>KEN</t>
   </si>
   <si>
-    <t>Kyrgyz Republic</t>
-  </si>
-  <si>
     <t>KGZ</t>
   </si>
   <si>
@@ -959,15 +932,9 @@
     <t>KIR</t>
   </si>
   <si>
-    <t>St. Kitts and Nevis</t>
-  </si>
-  <si>
     <t>KNA</t>
   </si>
   <si>
-    <t>Korea, Rep.</t>
-  </si>
-  <si>
     <t>KOR</t>
   </si>
   <si>
@@ -983,9 +950,6 @@
     <t>LAC</t>
   </si>
   <si>
-    <t>Lao PDR</t>
-  </si>
-  <si>
     <t>LAO</t>
   </si>
   <si>
@@ -1007,9 +971,6 @@
     <t>LBY</t>
   </si>
   <si>
-    <t>St. Lucia</t>
-  </si>
-  <si>
     <t>LCA</t>
   </si>
   <si>
@@ -1151,9 +1112,6 @@
     <t>MIC</t>
   </si>
   <si>
-    <t>Macedonia, FYR</t>
-  </si>
-  <si>
     <t>MKD</t>
   </si>
   <si>
@@ -1367,9 +1325,6 @@
     <t>PRI</t>
   </si>
   <si>
-    <t>Korea, Dem. People’s Rep.</t>
-  </si>
-  <si>
     <t>PRK</t>
   </si>
   <si>
@@ -1421,9 +1376,6 @@
     <t>ROU</t>
   </si>
   <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
     <t>RUS</t>
   </si>
   <si>
@@ -1535,9 +1487,6 @@
     <t>SUR</t>
   </si>
   <si>
-    <t>Slovak Republic</t>
-  </si>
-  <si>
     <t>SVK</t>
   </si>
   <si>
@@ -1553,9 +1502,6 @@
     <t>SWE</t>
   </si>
   <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
     <t>SWZ</t>
   </si>
   <si>
@@ -1571,9 +1517,6 @@
     <t>SYC</t>
   </si>
   <si>
-    <t>Syrian Arab Republic</t>
-  </si>
-  <si>
     <t>SYR</t>
   </si>
   <si>
@@ -1727,15 +1670,9 @@
     <t>UZB</t>
   </si>
   <si>
-    <t>St. Vincent and the Grenadines</t>
-  </si>
-  <si>
     <t>VCT</t>
   </si>
   <si>
-    <t>Venezuela, RB</t>
-  </si>
-  <si>
     <t>VEN</t>
   </si>
   <si>
@@ -1781,9 +1718,6 @@
     <t>XKX</t>
   </si>
   <si>
-    <t>Yemen, Rep.</t>
-  </si>
-  <si>
     <t>YEM</t>
   </si>
   <si>
@@ -1803,6 +1737,72 @@
   </si>
   <si>
     <t>ZWE</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Democratic Republic of Congo</t>
+  </si>
+  <si>
+    <t>Republic of Congo</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
   </si>
 </sst>
 </file>
@@ -2119,8 +2119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3449,10 +3449,10 @@
     </row>
     <row r="23" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>570</v>
+      </c>
+      <c r="B23" t="s">
         <v>106</v>
-      </c>
-      <c r="B23" t="s">
-        <v>107</v>
       </c>
       <c r="C23" t="s">
         <v>64</v>
@@ -3514,10 +3514,10 @@
     </row>
     <row r="24" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" t="s">
         <v>108</v>
-      </c>
-      <c r="B24" t="s">
-        <v>109</v>
       </c>
       <c r="C24" t="s">
         <v>64</v>
@@ -3576,10 +3576,10 @@
     </row>
     <row r="25" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" t="s">
         <v>110</v>
-      </c>
-      <c r="B25" t="s">
-        <v>111</v>
       </c>
       <c r="C25" t="s">
         <v>64</v>
@@ -3650,10 +3650,10 @@
     </row>
     <row r="26" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" t="s">
         <v>112</v>
-      </c>
-      <c r="B26" t="s">
-        <v>113</v>
       </c>
       <c r="C26" t="s">
         <v>64</v>
@@ -3715,10 +3715,10 @@
     </row>
     <row r="27" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" t="s">
         <v>114</v>
-      </c>
-      <c r="B27" t="s">
-        <v>115</v>
       </c>
       <c r="C27" t="s">
         <v>64</v>
@@ -3792,10 +3792,10 @@
     </row>
     <row r="28" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" t="s">
         <v>116</v>
-      </c>
-      <c r="B28" t="s">
-        <v>117</v>
       </c>
       <c r="C28" t="s">
         <v>64</v>
@@ -3842,10 +3842,10 @@
     </row>
     <row r="29" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" t="s">
         <v>118</v>
-      </c>
-      <c r="B29" t="s">
-        <v>119</v>
       </c>
       <c r="C29" t="s">
         <v>64</v>
@@ -3907,10 +3907,10 @@
     </row>
     <row r="30" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" t="s">
         <v>120</v>
-      </c>
-      <c r="B30" t="s">
-        <v>121</v>
       </c>
       <c r="C30" t="s">
         <v>64</v>
@@ -3975,10 +3975,10 @@
     </row>
     <row r="31" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>571</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C31" t="s">
         <v>64</v>
@@ -4025,10 +4025,10 @@
     </row>
     <row r="32" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C32" t="s">
         <v>64</v>
@@ -4087,10 +4087,10 @@
     </row>
     <row r="33" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C33" t="s">
         <v>64</v>
@@ -4131,10 +4131,10 @@
     </row>
     <row r="34" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B34" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C34" t="s">
         <v>64</v>
@@ -4148,10 +4148,10 @@
     </row>
     <row r="35" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B35" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C35" t="s">
         <v>64</v>
@@ -4228,10 +4228,10 @@
     </row>
     <row r="36" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" t="s">
         <v>64</v>
@@ -4251,10 +4251,10 @@
     </row>
     <row r="37" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B37" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C37" t="s">
         <v>64</v>
@@ -4331,10 +4331,10 @@
     </row>
     <row r="38" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C38" t="s">
         <v>64</v>
@@ -4357,10 +4357,10 @@
     </row>
     <row r="39" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C39" t="s">
         <v>64</v>
@@ -4410,10 +4410,10 @@
     </row>
     <row r="40" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s">
         <v>64</v>
@@ -4475,10 +4475,10 @@
     </row>
     <row r="41" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B41" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C41" t="s">
         <v>64</v>
@@ -4501,10 +4501,10 @@
     </row>
     <row r="42" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B42" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C42" t="s">
         <v>64</v>
@@ -4542,10 +4542,10 @@
     </row>
     <row r="43" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>146</v>
+        <v>572</v>
       </c>
       <c r="B43" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C43" t="s">
         <v>64</v>
@@ -4568,10 +4568,10 @@
     </row>
     <row r="44" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>148</v>
+        <v>573</v>
       </c>
       <c r="B44" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C44" t="s">
         <v>64</v>
@@ -4594,10 +4594,10 @@
     </row>
     <row r="45" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B45" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C45" t="s">
         <v>64</v>
@@ -4674,10 +4674,10 @@
     </row>
     <row r="46" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B46" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C46" t="s">
         <v>64</v>
@@ -4700,10 +4700,10 @@
     </row>
     <row r="47" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B47" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C47" t="s">
         <v>64</v>
@@ -4756,10 +4756,10 @@
     </row>
     <row r="48" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B48" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C48" t="s">
         <v>64</v>
@@ -4836,10 +4836,10 @@
     </row>
     <row r="49" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B49" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C49" t="s">
         <v>64</v>
@@ -4859,10 +4859,10 @@
     </row>
     <row r="50" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B50" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C50" t="s">
         <v>64</v>
@@ -4924,10 +4924,10 @@
     </row>
     <row r="51" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B51" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C51" t="s">
         <v>64</v>
@@ -4959,10 +4959,10 @@
     </row>
     <row r="52" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B52" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C52" t="s">
         <v>64</v>
@@ -5015,10 +5015,10 @@
     </row>
     <row r="53" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B53" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C53" t="s">
         <v>64</v>
@@ -5080,10 +5080,10 @@
     </row>
     <row r="54" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B54" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C54" t="s">
         <v>64</v>
@@ -5160,10 +5160,10 @@
     </row>
     <row r="55" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B55" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C55" t="s">
         <v>64</v>
@@ -5240,10 +5240,10 @@
     </row>
     <row r="56" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B56" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C56" t="s">
         <v>64</v>
@@ -5266,10 +5266,10 @@
     </row>
     <row r="57" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B57" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -5316,10 +5316,10 @@
     </row>
     <row r="58" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B58" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C58" t="s">
         <v>64</v>
@@ -5396,10 +5396,10 @@
     </row>
     <row r="59" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B59" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C59" t="s">
         <v>64</v>
@@ -5473,10 +5473,10 @@
     </row>
     <row r="60" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B60" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C60" t="s">
         <v>64</v>
@@ -5526,10 +5526,10 @@
     </row>
     <row r="61" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B61" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C61" t="s">
         <v>64</v>
@@ -5549,10 +5549,10 @@
     </row>
     <row r="62" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B62" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C62" t="s">
         <v>64</v>
@@ -5572,10 +5572,10 @@
     </row>
     <row r="63" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B63" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C63" t="s">
         <v>64</v>
@@ -5595,10 +5595,10 @@
     </row>
     <row r="64" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B64" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C64" t="s">
         <v>64</v>
@@ -5618,10 +5618,10 @@
     </row>
     <row r="65" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B65" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C65" t="s">
         <v>64</v>
@@ -5641,10 +5641,10 @@
     </row>
     <row r="66" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B66" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C66" t="s">
         <v>64</v>
@@ -5706,10 +5706,10 @@
     </row>
     <row r="67" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>194</v>
+        <v>574</v>
       </c>
       <c r="B67" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C67" t="s">
         <v>64</v>
@@ -5750,10 +5750,10 @@
     </row>
     <row r="68" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B68" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C68" t="s">
         <v>64</v>
@@ -5773,10 +5773,10 @@
     </row>
     <row r="69" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B69" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C69" t="s">
         <v>64</v>
@@ -5799,10 +5799,10 @@
     </row>
     <row r="70" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B70" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C70" t="s">
         <v>64</v>
@@ -5879,10 +5879,10 @@
     </row>
     <row r="71" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B71" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C71" t="s">
         <v>64</v>
@@ -5956,10 +5956,10 @@
     </row>
     <row r="72" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B72" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C72" t="s">
         <v>64</v>
@@ -5982,10 +5982,10 @@
     </row>
     <row r="73" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B73" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C73" t="s">
         <v>64</v>
@@ -6005,10 +6005,10 @@
     </row>
     <row r="74" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B74" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C74" t="s">
         <v>64</v>
@@ -6028,10 +6028,10 @@
     </row>
     <row r="75" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B75" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C75" t="s">
         <v>64</v>
@@ -6108,10 +6108,10 @@
     </row>
     <row r="76" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B76" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C76" t="s">
         <v>64</v>
@@ -6158,10 +6158,10 @@
     </row>
     <row r="77" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B77" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C77" t="s">
         <v>64</v>
@@ -6238,10 +6238,10 @@
     </row>
     <row r="78" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B78" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C78" t="s">
         <v>64</v>
@@ -6252,10 +6252,10 @@
     </row>
     <row r="79" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>218</v>
+        <v>575</v>
       </c>
       <c r="B79" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C79" t="s">
         <v>64</v>
@@ -6278,10 +6278,10 @@
     </row>
     <row r="80" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B80" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C80" t="s">
         <v>64</v>
@@ -6304,10 +6304,10 @@
     </row>
     <row r="81" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B81" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C81" t="s">
         <v>64</v>
@@ -6384,10 +6384,10 @@
     </row>
     <row r="82" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B82" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C82" t="s">
         <v>64</v>
@@ -6452,10 +6452,10 @@
     </row>
     <row r="83" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B83" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C83" t="s">
         <v>64</v>
@@ -6499,10 +6499,10 @@
     </row>
     <row r="84" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B84" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C84" t="s">
         <v>64</v>
@@ -6519,10 +6519,10 @@
     </row>
     <row r="85" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B85" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C85" t="s">
         <v>64</v>
@@ -6545,10 +6545,10 @@
     </row>
     <row r="86" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>232</v>
+        <v>576</v>
       </c>
       <c r="B86" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C86" t="s">
         <v>64</v>
@@ -6571,10 +6571,10 @@
     </row>
     <row r="87" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B87" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C87" t="s">
         <v>64</v>
@@ -6597,10 +6597,10 @@
     </row>
     <row r="88" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B88" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C88" t="s">
         <v>64</v>
@@ -6623,10 +6623,10 @@
     </row>
     <row r="89" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B89" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C89" t="s">
         <v>64</v>
@@ -6700,10 +6700,10 @@
     </row>
     <row r="90" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B90" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C90" t="s">
         <v>64</v>
@@ -6765,10 +6765,10 @@
     </row>
     <row r="91" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B91" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C91" t="s">
         <v>64</v>
@@ -6830,10 +6830,10 @@
     </row>
     <row r="92" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B92" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C92" t="s">
         <v>64</v>
@@ -6910,10 +6910,10 @@
     </row>
     <row r="93" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B93" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C93" t="s">
         <v>64</v>
@@ -6960,10 +6960,10 @@
     </row>
     <row r="94" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B94" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C94" t="s">
         <v>64</v>
@@ -7040,10 +7040,10 @@
     </row>
     <row r="95" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B95" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C95" t="s">
         <v>64</v>
@@ -7063,10 +7063,10 @@
     </row>
     <row r="96" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B96" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C96" t="s">
         <v>64</v>
@@ -7128,10 +7128,10 @@
     </row>
     <row r="97" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B97" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C97" t="s">
         <v>64</v>
@@ -7196,10 +7196,10 @@
     </row>
     <row r="98" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B98" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C98" t="s">
         <v>64</v>
@@ -7219,10 +7219,10 @@
     </row>
     <row r="99" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B99" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C99" t="s">
         <v>64</v>
@@ -7299,10 +7299,10 @@
     </row>
     <row r="100" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B100" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C100" t="s">
         <v>64</v>
@@ -7331,10 +7331,10 @@
     </row>
     <row r="101" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B101" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C101" t="s">
         <v>64</v>
@@ -7411,10 +7411,10 @@
     </row>
     <row r="102" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B102" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C102" t="s">
         <v>64</v>
@@ -7434,10 +7434,10 @@
     </row>
     <row r="103" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B103" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C103" t="s">
         <v>64</v>
@@ -7457,10 +7457,10 @@
     </row>
     <row r="104" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B104" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C104" t="s">
         <v>64</v>
@@ -7480,10 +7480,10 @@
     </row>
     <row r="105" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B105" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C105" t="s">
         <v>64</v>
@@ -7503,10 +7503,10 @@
     </row>
     <row r="106" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B106" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C106" t="s">
         <v>64</v>
@@ -7553,10 +7553,10 @@
     </row>
     <row r="107" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B107" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C107" t="s">
         <v>64</v>
@@ -7576,10 +7576,10 @@
     </row>
     <row r="108" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B108" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C108" t="s">
         <v>64</v>
@@ -7608,10 +7608,10 @@
     </row>
     <row r="109" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B109" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C109" t="s">
         <v>64</v>
@@ -7688,10 +7688,10 @@
     </row>
     <row r="110" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B110" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C110" t="s">
         <v>64</v>
@@ -7702,10 +7702,10 @@
     </row>
     <row r="111" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B111" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C111" t="s">
         <v>64</v>
@@ -7782,10 +7782,10 @@
     </row>
     <row r="112" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>284</v>
+        <v>577</v>
       </c>
       <c r="B112" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C112" t="s">
         <v>64</v>
@@ -7811,10 +7811,10 @@
     </row>
     <row r="113" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B113" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C113" t="s">
         <v>64</v>
@@ -7843,10 +7843,10 @@
     </row>
     <row r="114" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B114" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C114" t="s">
         <v>64</v>
@@ -7923,10 +7923,10 @@
     </row>
     <row r="115" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B115" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C115" t="s">
         <v>64</v>
@@ -7997,10 +7997,10 @@
     </row>
     <row r="116" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B116" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C116" t="s">
         <v>64</v>
@@ -8077,10 +8077,10 @@
     </row>
     <row r="117" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B117" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C117" t="s">
         <v>64</v>
@@ -8157,10 +8157,10 @@
     </row>
     <row r="118" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B118" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C118" t="s">
         <v>64</v>
@@ -8207,10 +8207,10 @@
     </row>
     <row r="119" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B119" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C119" t="s">
         <v>64</v>
@@ -8287,10 +8287,10 @@
     </row>
     <row r="120" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B120" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C120" t="s">
         <v>64</v>
@@ -8355,10 +8355,10 @@
     </row>
     <row r="121" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B121" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C121" t="s">
         <v>64</v>
@@ -8408,10 +8408,10 @@
     </row>
     <row r="122" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>304</v>
+        <v>591</v>
       </c>
       <c r="B122" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C122" t="s">
         <v>64</v>
@@ -8488,10 +8488,10 @@
     </row>
     <row r="123" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B123" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C123" t="s">
         <v>64</v>
@@ -8553,10 +8553,10 @@
     </row>
     <row r="124" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B124" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C124" t="s">
         <v>64</v>
@@ -8588,10 +8588,10 @@
     </row>
     <row r="125" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>310</v>
+        <v>578</v>
       </c>
       <c r="B125" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C125" t="s">
         <v>64</v>
@@ -8656,10 +8656,10 @@
     </row>
     <row r="126" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>312</v>
+        <v>579</v>
       </c>
       <c r="B126" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="C126" t="s">
         <v>64</v>
@@ -8688,10 +8688,10 @@
     </row>
     <row r="127" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="B127" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="C127" t="s">
         <v>64</v>
@@ -8738,10 +8738,10 @@
     </row>
     <row r="128" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B128" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="C128" t="s">
         <v>64</v>
@@ -8761,10 +8761,10 @@
     </row>
     <row r="129" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>318</v>
+        <v>580</v>
       </c>
       <c r="B129" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="C129" t="s">
         <v>64</v>
@@ -8787,10 +8787,10 @@
     </row>
     <row r="130" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B130" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="C130" t="s">
         <v>64</v>
@@ -8828,10 +8828,10 @@
     </row>
     <row r="131" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="B131" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="C131" t="s">
         <v>64</v>
@@ -8860,10 +8860,10 @@
     </row>
     <row r="132" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="B132" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="C132" t="s">
         <v>64</v>
@@ -8886,10 +8886,10 @@
     </row>
     <row r="133" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>326</v>
+        <v>581</v>
       </c>
       <c r="B133" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="C133" t="s">
         <v>64</v>
@@ -8945,10 +8945,10 @@
     </row>
     <row r="134" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="B134" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="C134" t="s">
         <v>64</v>
@@ -8968,10 +8968,10 @@
     </row>
     <row r="135" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="B135" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="C135" t="s">
         <v>64</v>
@@ -8991,10 +8991,10 @@
     </row>
     <row r="136" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="B136" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="C136" t="s">
         <v>64</v>
@@ -9014,10 +9014,10 @@
     </row>
     <row r="137" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="B137" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="C137" t="s">
         <v>64</v>
@@ -9094,10 +9094,10 @@
     </row>
     <row r="138" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B138" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="C138" t="s">
         <v>64</v>
@@ -9147,10 +9147,10 @@
     </row>
     <row r="139" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="B139" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="C139" t="s">
         <v>64</v>
@@ -9170,10 +9170,10 @@
     </row>
     <row r="140" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="B140" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="C140" t="s">
         <v>64</v>
@@ -9193,10 +9193,10 @@
     </row>
     <row r="141" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="B141" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="C141" t="s">
         <v>64</v>
@@ -9231,10 +9231,10 @@
     </row>
     <row r="142" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="B142" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="C142" t="s">
         <v>64</v>
@@ -9254,10 +9254,10 @@
     </row>
     <row r="143" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="B143" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="C143" t="s">
         <v>64</v>
@@ -9334,10 +9334,10 @@
     </row>
     <row r="144" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B144" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="C144" t="s">
         <v>64</v>
@@ -9408,10 +9408,10 @@
     </row>
     <row r="145" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="B145" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="C145" t="s">
         <v>64</v>
@@ -9485,10 +9485,10 @@
     </row>
     <row r="146" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="B146" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="C146" t="s">
         <v>64</v>
@@ -9550,10 +9550,10 @@
     </row>
     <row r="147" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="B147" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="C147" t="s">
         <v>64</v>
@@ -9564,10 +9564,10 @@
     </row>
     <row r="148" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="B148" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="C148" t="s">
         <v>64</v>
@@ -9629,10 +9629,10 @@
     </row>
     <row r="149" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="B149" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="C149" t="s">
         <v>64</v>
@@ -9679,10 +9679,10 @@
     </row>
     <row r="150" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="B150" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="C150" t="s">
         <v>64</v>
@@ -9753,10 +9753,10 @@
     </row>
     <row r="151" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="B151" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="C151" t="s">
         <v>64</v>
@@ -9779,10 +9779,10 @@
     </row>
     <row r="152" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="B152" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="C152" t="s">
         <v>64</v>
@@ -9823,10 +9823,10 @@
     </row>
     <row r="153" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="B153" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="C153" t="s">
         <v>64</v>
@@ -9846,10 +9846,10 @@
     </row>
     <row r="154" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="B154" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="C154" t="s">
         <v>64</v>
@@ -9926,10 +9926,10 @@
     </row>
     <row r="155" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B155" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="C155" t="s">
         <v>64</v>
@@ -9940,10 +9940,10 @@
     </row>
     <row r="156" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="B156" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="C156" t="s">
         <v>64</v>
@@ -9963,10 +9963,10 @@
     </row>
     <row r="157" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>374</v>
+        <v>582</v>
       </c>
       <c r="B157" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="C157" t="s">
         <v>64</v>
@@ -10028,10 +10028,10 @@
     </row>
     <row r="158" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="B158" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="C158" t="s">
         <v>64</v>
@@ -10054,10 +10054,10 @@
     </row>
     <row r="159" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="B159" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="C159" t="s">
         <v>64</v>
@@ -10122,10 +10122,10 @@
     </row>
     <row r="160" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="B160" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="C160" t="s">
         <v>64</v>
@@ -10187,10 +10187,10 @@
     </row>
     <row r="161" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="B161" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="C161" t="s">
         <v>64</v>
@@ -10210,10 +10210,10 @@
     </row>
     <row r="162" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="B162" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="C162" t="s">
         <v>64</v>
@@ -10269,10 +10269,10 @@
     </row>
     <row r="163" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="B163" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="C163" t="s">
         <v>64</v>
@@ -10325,10 +10325,10 @@
     </row>
     <row r="164" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="B164" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="C164" t="s">
         <v>64</v>
@@ -10339,10 +10339,10 @@
     </row>
     <row r="165" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="B165" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="C165" t="s">
         <v>64</v>
@@ -10389,10 +10389,10 @@
     </row>
     <row r="166" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="B166" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="C166" t="s">
         <v>64</v>
@@ -10415,10 +10415,10 @@
     </row>
     <row r="167" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="B167" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="C167" t="s">
         <v>64</v>
@@ -10489,10 +10489,10 @@
     </row>
     <row r="168" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="B168" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="C168" t="s">
         <v>64</v>
@@ -10542,10 +10542,10 @@
     </row>
     <row r="169" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="B169" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="C169" t="s">
         <v>64</v>
@@ -10613,10 +10613,10 @@
     </row>
     <row r="170" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="B170" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="C170" t="s">
         <v>64</v>
@@ -10636,10 +10636,10 @@
     </row>
     <row r="171" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="B171" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="C171" t="s">
         <v>64</v>
@@ -10692,10 +10692,10 @@
     </row>
     <row r="172" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="B172" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C172" t="s">
         <v>64</v>
@@ -10718,10 +10718,10 @@
     </row>
     <row r="173" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="B173" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="C173" t="s">
         <v>64</v>
@@ -10738,10 +10738,10 @@
     </row>
     <row r="174" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="B174" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="C174" t="s">
         <v>64</v>
@@ -10764,10 +10764,10 @@
     </row>
     <row r="175" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="B175" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="C175" t="s">
         <v>64</v>
@@ -10844,10 +10844,10 @@
     </row>
     <row r="176" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="B176" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="C176" t="s">
         <v>64</v>
@@ -10924,10 +10924,10 @@
     </row>
     <row r="177" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="B177" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="C177" t="s">
         <v>64</v>
@@ -11004,10 +11004,10 @@
     </row>
     <row r="178" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="B178" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="C178" t="s">
         <v>64</v>
@@ -11075,10 +11075,10 @@
     </row>
     <row r="179" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="B179" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="C179" t="s">
         <v>64</v>
@@ -11092,10 +11092,10 @@
     </row>
     <row r="180" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="B180" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="C180" t="s">
         <v>64</v>
@@ -11166,10 +11166,10 @@
     </row>
     <row r="181" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="B181" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="C181" t="s">
         <v>64</v>
@@ -11189,10 +11189,10 @@
     </row>
     <row r="182" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="B182" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="C182" t="s">
         <v>64</v>
@@ -11242,10 +11242,10 @@
     </row>
     <row r="183" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="B183" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="C183" t="s">
         <v>64</v>
@@ -11265,10 +11265,10 @@
     </row>
     <row r="184" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B184" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="C184" t="s">
         <v>64</v>
@@ -11342,10 +11342,10 @@
     </row>
     <row r="185" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="B185" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="C185" t="s">
         <v>64</v>
@@ -11422,10 +11422,10 @@
     </row>
     <row r="186" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="B186" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="C186" t="s">
         <v>64</v>
@@ -11454,10 +11454,10 @@
     </row>
     <row r="187" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="B187" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C187" t="s">
         <v>64</v>
@@ -11525,10 +11525,10 @@
     </row>
     <row r="188" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="B188" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="C188" t="s">
         <v>64</v>
@@ -11542,10 +11542,10 @@
     </row>
     <row r="189" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="B189" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="C189" t="s">
         <v>64</v>
@@ -11565,10 +11565,10 @@
     </row>
     <row r="190" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="B190" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="C190" t="s">
         <v>64</v>
@@ -11645,10 +11645,10 @@
     </row>
     <row r="191" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="B191" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="C191" t="s">
         <v>64</v>
@@ -11668,10 +11668,10 @@
     </row>
     <row r="192" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="B192" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="C192" t="s">
         <v>64</v>
@@ -11748,10 +11748,10 @@
     </row>
     <row r="193" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>446</v>
+        <v>583</v>
       </c>
       <c r="B193" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="C193" t="s">
         <v>64</v>
@@ -11774,10 +11774,10 @@
     </row>
     <row r="194" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="B194" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="C194" t="s">
         <v>64</v>
@@ -11851,10 +11851,10 @@
     </row>
     <row r="195" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="B195" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="C195" t="s">
         <v>64</v>
@@ -11919,10 +11919,10 @@
     </row>
     <row r="196" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="B196" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="C196" t="s">
         <v>64</v>
@@ -11984,10 +11984,10 @@
     </row>
     <row r="197" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="B197" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="C197" t="s">
         <v>64</v>
@@ -12007,10 +12007,10 @@
     </row>
     <row r="198" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="B198" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="C198" t="s">
         <v>64</v>
@@ -12030,10 +12030,10 @@
     </row>
     <row r="199" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="B199" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="C199" t="s">
         <v>64</v>
@@ -12056,10 +12056,10 @@
     </row>
     <row r="200" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="B200" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C200" t="s">
         <v>64</v>
@@ -12115,10 +12115,10 @@
     </row>
     <row r="201" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="B201" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="C201" t="s">
         <v>64</v>
@@ -12195,10 +12195,10 @@
     </row>
     <row r="202" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>464</v>
+        <v>584</v>
       </c>
       <c r="B202" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="C202" t="s">
         <v>64</v>
@@ -12251,10 +12251,10 @@
     </row>
     <row r="203" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="B203" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="C203" t="s">
         <v>64</v>
@@ -12289,10 +12289,10 @@
     </row>
     <row r="204" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="B204" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="C204" t="s">
         <v>64</v>
@@ -12312,10 +12312,10 @@
     </row>
     <row r="205" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="B205" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="C205" t="s">
         <v>64</v>
@@ -12356,10 +12356,10 @@
     </row>
     <row r="206" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="B206" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="C206" t="s">
         <v>64</v>
@@ -12376,10 +12376,10 @@
     </row>
     <row r="207" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="B207" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="C207" t="s">
         <v>64</v>
@@ -12402,10 +12402,10 @@
     </row>
     <row r="208" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="B208" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="C208" t="s">
         <v>64</v>
@@ -12482,10 +12482,10 @@
     </row>
     <row r="209" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="B209" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="C209" t="s">
         <v>64</v>
@@ -12511,10 +12511,10 @@
     </row>
     <row r="210" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="B210" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="C210" t="s">
         <v>64</v>
@@ -12555,10 +12555,10 @@
     </row>
     <row r="211" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="B211" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="C211" t="s">
         <v>64</v>
@@ -12635,10 +12635,10 @@
     </row>
     <row r="212" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="B212" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="C212" t="s">
         <v>64</v>
@@ -12685,10 +12685,10 @@
     </row>
     <row r="213" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="B213" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="C213" t="s">
         <v>64</v>
@@ -12711,10 +12711,10 @@
     </row>
     <row r="214" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="B214" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="C214" t="s">
         <v>64</v>
@@ -12776,10 +12776,10 @@
     </row>
     <row r="215" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="B215" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="C215" t="s">
         <v>64</v>
@@ -12799,10 +12799,10 @@
     </row>
     <row r="216" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="B216" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="C216" t="s">
         <v>64</v>
@@ -12816,10 +12816,10 @@
     </row>
     <row r="217" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="B217" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="C217" t="s">
         <v>64</v>
@@ -12839,10 +12839,10 @@
     </row>
     <row r="218" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="B218" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="C218" t="s">
         <v>64</v>
@@ -12862,10 +12862,10 @@
     </row>
     <row r="219" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="B219" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="C219" t="s">
         <v>64</v>
@@ -12894,10 +12894,10 @@
     </row>
     <row r="220" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="B220" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="C220" t="s">
         <v>64</v>
@@ -12935,10 +12935,10 @@
     </row>
     <row r="221" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>502</v>
+        <v>585</v>
       </c>
       <c r="B221" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="C221" t="s">
         <v>64</v>
@@ -13015,10 +13015,10 @@
     </row>
     <row r="222" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="B222" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="C222" t="s">
         <v>64</v>
@@ -13095,10 +13095,10 @@
     </row>
     <row r="223" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="B223" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="C223" t="s">
         <v>64</v>
@@ -13175,10 +13175,10 @@
     </row>
     <row r="224" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>508</v>
+        <v>586</v>
       </c>
       <c r="B224" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="C224" t="s">
         <v>64</v>
@@ -13219,10 +13219,10 @@
     </row>
     <row r="225" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="B225" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="C225" t="s">
         <v>64</v>
@@ -13233,10 +13233,10 @@
     </row>
     <row r="226" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
       <c r="B226" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="C226" t="s">
         <v>64</v>
@@ -13283,10 +13283,10 @@
     </row>
     <row r="227" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>514</v>
+        <v>587</v>
       </c>
       <c r="B227" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="C227" t="s">
         <v>64</v>
@@ -13339,10 +13339,10 @@
     </row>
     <row r="228" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="B228" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="C228" t="s">
         <v>64</v>
@@ -13389,10 +13389,10 @@
     </row>
     <row r="229" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="B229" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="C229" t="s">
         <v>64</v>
@@ -13415,10 +13415,10 @@
     </row>
     <row r="230" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="B230" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="C230" t="s">
         <v>64</v>
@@ -13438,10 +13438,10 @@
     </row>
     <row r="231" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="B231" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="C231" t="s">
         <v>64</v>
@@ -13461,10 +13461,10 @@
     </row>
     <row r="232" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
       <c r="B232" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
       <c r="C232" t="s">
         <v>64</v>
@@ -13487,10 +13487,10 @@
     </row>
     <row r="233" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="B233" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="C233" t="s">
         <v>64</v>
@@ -13567,10 +13567,10 @@
     </row>
     <row r="234" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="B234" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="C234" t="s">
         <v>64</v>
@@ -13632,10 +13632,10 @@
     </row>
     <row r="235" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="B235" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="C235" t="s">
         <v>64</v>
@@ -13682,10 +13682,10 @@
     </row>
     <row r="236" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>532</v>
+        <v>513</v>
       </c>
       <c r="B236" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="C236" t="s">
         <v>64</v>
@@ -13705,10 +13705,10 @@
     </row>
     <row r="237" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="B237" t="s">
-        <v>535</v>
+        <v>516</v>
       </c>
       <c r="C237" t="s">
         <v>64</v>
@@ -13743,10 +13743,10 @@
     </row>
     <row r="238" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="B238" t="s">
-        <v>537</v>
+        <v>518</v>
       </c>
       <c r="C238" t="s">
         <v>64</v>
@@ -13766,10 +13766,10 @@
     </row>
     <row r="239" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="B239" t="s">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="C239" t="s">
         <v>64</v>
@@ -13819,10 +13819,10 @@
     </row>
     <row r="240" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="B240" t="s">
-        <v>541</v>
+        <v>522</v>
       </c>
       <c r="C240" t="s">
         <v>64</v>
@@ -13842,10 +13842,10 @@
     </row>
     <row r="241" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>542</v>
+        <v>523</v>
       </c>
       <c r="B241" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
       <c r="C241" t="s">
         <v>64</v>
@@ -13865,10 +13865,10 @@
     </row>
     <row r="242" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="B242" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="C242" t="s">
         <v>64</v>
@@ -13927,10 +13927,10 @@
     </row>
     <row r="243" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="B243" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="C243" t="s">
         <v>64</v>
@@ -13965,10 +13965,10 @@
     </row>
     <row r="244" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>548</v>
+        <v>529</v>
       </c>
       <c r="B244" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="C244" t="s">
         <v>64</v>
@@ -14009,10 +14009,10 @@
     </row>
     <row r="245" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="B245" t="s">
-        <v>551</v>
+        <v>532</v>
       </c>
       <c r="C245" t="s">
         <v>64</v>
@@ -14056,10 +14056,10 @@
     </row>
     <row r="246" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="B246" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="C246" t="s">
         <v>64</v>
@@ -14094,10 +14094,10 @@
     </row>
     <row r="247" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="B247" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="C247" t="s">
         <v>64</v>
@@ -14144,10 +14144,10 @@
     </row>
     <row r="248" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="B248" t="s">
-        <v>557</v>
+        <v>538</v>
       </c>
       <c r="C248" t="s">
         <v>64</v>
@@ -14212,10 +14212,10 @@
     </row>
     <row r="249" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="B249" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="C249" t="s">
         <v>64</v>
@@ -14235,10 +14235,10 @@
     </row>
     <row r="250" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="B250" t="s">
-        <v>561</v>
+        <v>542</v>
       </c>
       <c r="C250" t="s">
         <v>64</v>
@@ -14300,10 +14300,10 @@
     </row>
     <row r="251" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="B251" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="C251" t="s">
         <v>64</v>
@@ -14380,10 +14380,10 @@
     </row>
     <row r="252" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="B252" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="C252" t="s">
         <v>64</v>
@@ -14436,10 +14436,10 @@
     </row>
     <row r="253" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>566</v>
+        <v>588</v>
       </c>
       <c r="B253" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="C253" t="s">
         <v>64</v>
@@ -14507,10 +14507,10 @@
     </row>
     <row r="254" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>568</v>
+        <v>589</v>
       </c>
       <c r="B254" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
       <c r="C254" t="s">
         <v>64</v>
@@ -14581,10 +14581,10 @@
     </row>
     <row r="255" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
       <c r="B255" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
       <c r="C255" t="s">
         <v>64</v>
@@ -14622,10 +14622,10 @@
     </row>
     <row r="256" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>572</v>
+        <v>551</v>
       </c>
       <c r="B256" t="s">
-        <v>573</v>
+        <v>552</v>
       </c>
       <c r="C256" t="s">
         <v>64</v>
@@ -14678,10 +14678,10 @@
     </row>
     <row r="257" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="B257" t="s">
-        <v>575</v>
+        <v>554</v>
       </c>
       <c r="C257" t="s">
         <v>64</v>
@@ -14725,10 +14725,10 @@
     </row>
     <row r="258" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="B258" t="s">
-        <v>577</v>
+        <v>556</v>
       </c>
       <c r="C258" t="s">
         <v>64</v>
@@ -14751,10 +14751,10 @@
     </row>
     <row r="259" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>578</v>
+        <v>557</v>
       </c>
       <c r="B259" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="C259" t="s">
         <v>64</v>
@@ -14774,10 +14774,10 @@
     </row>
     <row r="260" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>580</v>
+        <v>559</v>
       </c>
       <c r="B260" t="s">
-        <v>581</v>
+        <v>560</v>
       </c>
       <c r="C260" t="s">
         <v>64</v>
@@ -14797,10 +14797,10 @@
     </row>
     <row r="261" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>582</v>
+        <v>561</v>
       </c>
       <c r="B261" t="s">
-        <v>583</v>
+        <v>562</v>
       </c>
       <c r="C261" t="s">
         <v>64</v>
@@ -14838,10 +14838,10 @@
     </row>
     <row r="262" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="B262" t="s">
-        <v>585</v>
+        <v>563</v>
       </c>
       <c r="C262" t="s">
         <v>64</v>
@@ -14888,10 +14888,10 @@
     </row>
     <row r="263" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>586</v>
+        <v>564</v>
       </c>
       <c r="B263" t="s">
-        <v>587</v>
+        <v>565</v>
       </c>
       <c r="C263" t="s">
         <v>64</v>
@@ -14968,10 +14968,10 @@
     </row>
     <row r="264" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>588</v>
+        <v>566</v>
       </c>
       <c r="B264" t="s">
-        <v>589</v>
+        <v>567</v>
       </c>
       <c r="C264" t="s">
         <v>64</v>
@@ -15015,10 +15015,10 @@
     </row>
     <row r="265" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>590</v>
+        <v>568</v>
       </c>
       <c r="B265" t="s">
-        <v>591</v>
+        <v>569</v>
       </c>
       <c r="C265" t="s">
         <v>64</v>
